--- a/BAOdev/OntoRatInputFiles/assay_kit_dev.xlsx
+++ b/BAOdev/OntoRatInputFiles/assay_kit_dev.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="assay kit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>Term ID</t>
   </si>
@@ -277,13 +277,121 @@
   </si>
   <si>
     <t>Steady-Glo Luciferase Assay System</t>
+  </si>
+  <si>
+    <t>WST-1 assay (Roche)</t>
+  </si>
+  <si>
+    <t>A colorimatric assay for cell viability/ proliferation based on the stable tetrazolium salt WST-1, which is cleaved to a soluble formazan by a complex cellular mechanism that occurs primarily at the cell surface. This bioreduction is largely dependent on the glycolytic production of NAD(P)H in viable cells.</t>
+  </si>
+  <si>
+    <t>Reverse Transcription Kit (Applied Biosystems or ABI)</t>
+  </si>
+  <si>
+    <t>Alpha Screen Assay Kit (PerkinElmer)</t>
+  </si>
+  <si>
+    <t>A homogeneous bead-based proximity assay (alpha = 'amplified luminescent proximity homogeneous assay'). Binding of molecules captured on donor and acceptor beads leads to an energy transfer from one bead to the other, ultimately producing a luminescent/fluorescent signal.  Ligands on the bead allow for detection of many different types of molecules.</t>
+  </si>
+  <si>
+    <t>HTRF KinEASE assay kit (Cisbio)</t>
+  </si>
+  <si>
+    <t>A homogeneous functional FRET-based assay used to assess both Ser/Thr and Tyr kinase activity</t>
+  </si>
+  <si>
+    <t>Human Cytochrome c ELISA (R&amp;D Systems)</t>
+  </si>
+  <si>
+    <t>A solid phase sandwich ELISA to meaasure human cytochrome c in cell lysates</t>
+  </si>
+  <si>
+    <t>OptEIA human IL-2 ELISA (BD Biosciences)</t>
+  </si>
+  <si>
+    <t>TRANSCREENER ADP2 FP Kinase Assay (BellBrook Labs)</t>
+  </si>
+  <si>
+    <t>A fluorescence polarization (FP) assay that uses an antibody against ADP and a tracer to measure the progress of any enzyme that produces ADP</t>
+  </si>
+  <si>
+    <t>Polar Screen PPARg Competitor Assay, Green (Invitrogen)</t>
+  </si>
+  <si>
+    <t>A fluorescence polarization (FP) assay.</t>
+  </si>
+  <si>
+    <t>QUANTI-Blue (InvivoGen)</t>
+  </si>
+  <si>
+    <t>QUANTI-Blue™ is a colorimetric enzyme assay to measure alkaline phosphatase activity.</t>
+  </si>
+  <si>
+    <t>http://www.invivogen.com/quanti-blue</t>
+  </si>
+  <si>
+    <t>ToxiLight BioAssay Kit (Lonza)</t>
+  </si>
+  <si>
+    <t>The ToxiLight™ BioAssay Kit is a bioluminescent cytolysis assay kit that measures release of the enzyme, adenylate kinase (AK), from damaged cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransAM Kit for NF-kB Family (Active Motif) </t>
+  </si>
+  <si>
+    <t>TransAM® Kits are DNA-binding ELISAs that facilitate the study of transcription factor activation in mammalian tissue and cell extracts.</t>
+  </si>
+  <si>
+    <t>https://www.activemotif.com/catalog/634/transam-nf%CE%BAb</t>
+  </si>
+  <si>
+    <t>TRANSCREENER AMP2/GMP2 FP Assay (BellBrook Labs)</t>
+  </si>
+  <si>
+    <t>A fluorescence polarization (FP) assay that uses an antibody against AMP or GMP and a tracer to measure the progress of any enzyme that produces AMP or GMP</t>
+  </si>
+  <si>
+    <t>BAO_0140018</t>
+  </si>
+  <si>
+    <t>BAO_0140019</t>
+  </si>
+  <si>
+    <t>BAO_0140020</t>
+  </si>
+  <si>
+    <t>BAO_0140021</t>
+  </si>
+  <si>
+    <t>BAO_0140022</t>
+  </si>
+  <si>
+    <t>BAO_0140023</t>
+  </si>
+  <si>
+    <t>BAO_0140024</t>
+  </si>
+  <si>
+    <t>BAO_0140025</t>
+  </si>
+  <si>
+    <t>BAO_0140026</t>
+  </si>
+  <si>
+    <t>BAO_0140027</t>
+  </si>
+  <si>
+    <t>BAO_0140028</t>
+  </si>
+  <si>
+    <t>BAO_0140029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -305,6 +413,10 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -349,7 +461,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -378,6 +490,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -712,16 +828,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="63.75" customHeight="1">
@@ -1368,7 +1486,308 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
+    <row r="29" spans="1:9" ht="409">
+      <c r="A29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>602337</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" s="17">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>540282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="16"/>
+      <c r="H30"/>
+      <c r="I30" s="17">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409">
+      <c r="A31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>2444</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="17">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="165">
+      <c r="A32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>1726</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" s="17">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="135">
+      <c r="A33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>504407</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" s="17">
+        <v>42554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>1271</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" s="16"/>
+      <c r="H34"/>
+      <c r="I34" s="17">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="285">
+      <c r="A35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <v>1795</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" s="17">
+        <v>42557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75">
+      <c r="A36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>504453</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" s="17">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="135">
+      <c r="A37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37">
+        <v>1369</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="17">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="270">
+      <c r="A38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>651654</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" s="17">
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="240">
+      <c r="A39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39">
+        <v>1295</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="17">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="315">
+      <c r="A40" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40">
+        <v>651607</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="17">
+        <v>42557</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E9" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
     <hyperlink ref="E8" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
@@ -1415,6 +1834,18 @@
     <hyperlink ref="A26" r:id="rId35" display="http://www.bioassayontology.org/bao%23BAO_0000310"/>
     <hyperlink ref="A27" r:id="rId36" display="http://www.bioassayontology.org/bao%23BAO_0000299"/>
     <hyperlink ref="A28" r:id="rId37" display="http://www.bioassayontology.org/bao%23BAO_0000298"/>
+    <hyperlink ref="E29" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E30" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E31" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E32" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E33" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E34" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E35" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E36" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E37" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E38" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E39" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
+    <hyperlink ref="E40" location="BAO_0000248" display="http://www.bioassayontology.org/bao#BAO_0000248"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
